--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2695" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="841">
   <si>
     <t>TestCases</t>
   </si>
@@ -2536,6 +2536,27 @@
   </si>
   <si>
     <t>4202055.0</t>
+  </si>
+  <si>
+    <t>6818087119</t>
+  </si>
+  <si>
+    <t>Niyati</t>
+  </si>
+  <si>
+    <t>KailashRaja65125@example.net</t>
+  </si>
+  <si>
+    <t>1989-01-26</t>
+  </si>
+  <si>
+    <t>752745609345715</t>
+  </si>
+  <si>
+    <t>IDEP6169959956125LUT</t>
+  </si>
+  <si>
+    <t>4202069.0</t>
   </si>
 </sst>
 </file>
@@ -3016,7 +3037,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>827</v>
+        <v>834</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -3168,7 +3189,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>827</v>
+        <v>834</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3185,7 +3206,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>827</v>
+        <v>834</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3202,7 +3223,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>827</v>
+        <v>834</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3219,7 +3240,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>827</v>
+        <v>834</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3236,7 +3257,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>827</v>
+        <v>834</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3305,7 +3326,7 @@
         <v>82</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="F2" s="19">
         <v>18.939800000000002</v>
@@ -3535,7 +3556,7 @@
         <v>82</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>72</v>
@@ -3692,7 +3713,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>109</v>
@@ -3876,13 +3897,13 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
       <c r="F2" t="s">
-        <v>829</v>
+        <v>836</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>31</v>
@@ -4217,10 +4238,10 @@
         <v>56</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>827</v>
+        <v>834</v>
       </c>
       <c r="E2" t="s">
-        <v>829</v>
+        <v>836</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>69</v>
@@ -4232,7 +4253,7 @@
         <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>72</v>
@@ -4241,10 +4262,10 @@
         <v>73</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>832</v>
+        <v>839</v>
       </c>
       <c r="M2" s="17" t="n">
-        <v>4202069.0</v>
+        <v>4202229.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>74</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2795" uniqueCount="867">
   <si>
     <t>TestCases</t>
   </si>
@@ -2557,6 +2557,84 @@
   </si>
   <si>
     <t>4202069.0</t>
+  </si>
+  <si>
+    <t>9335447032</t>
+  </si>
+  <si>
+    <t>MustafaAcharya13751@example.net</t>
+  </si>
+  <si>
+    <t>1988-01-18</t>
+  </si>
+  <si>
+    <t>594690111774618</t>
+  </si>
+  <si>
+    <t>IDEP661996972984INET</t>
+  </si>
+  <si>
+    <t>4202229.0</t>
+  </si>
+  <si>
+    <t>7185503651</t>
+  </si>
+  <si>
+    <t>ArpitKohli73315@example.net</t>
+  </si>
+  <si>
+    <t>1991-10-06</t>
+  </si>
+  <si>
+    <t>289943391730242</t>
+  </si>
+  <si>
+    <t>IDEP691697347259PKCI</t>
+  </si>
+  <si>
+    <t>4202235.0</t>
+  </si>
+  <si>
+    <t>9619127221</t>
+  </si>
+  <si>
+    <t>Drishti</t>
+  </si>
+  <si>
+    <t>MohanlalDey71650@example.net</t>
+  </si>
+  <si>
+    <t>1982-12-02</t>
+  </si>
+  <si>
+    <t>051967682973043</t>
+  </si>
+  <si>
+    <t>IDEP696197915897Y3K8</t>
+  </si>
+  <si>
+    <t>4202238.0</t>
+  </si>
+  <si>
+    <t>6140732131</t>
+  </si>
+  <si>
+    <t>Heena</t>
+  </si>
+  <si>
+    <t>MustafaKarpe44974@example.net</t>
+  </si>
+  <si>
+    <t>1992-10-30</t>
+  </si>
+  <si>
+    <t>665534743063723</t>
+  </si>
+  <si>
+    <t>IDEP966198458955RWY9</t>
+  </si>
+  <si>
+    <t>4202240.0</t>
   </si>
 </sst>
 </file>
@@ -3037,7 +3115,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>834</v>
+        <v>860</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -3189,7 +3267,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>834</v>
+        <v>860</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3206,7 +3284,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>834</v>
+        <v>860</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3223,7 +3301,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>834</v>
+        <v>860</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3240,7 +3318,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>834</v>
+        <v>860</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3257,7 +3335,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>834</v>
+        <v>860</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3326,7 +3404,7 @@
         <v>82</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>838</v>
+        <v>864</v>
       </c>
       <c r="F2" s="19">
         <v>18.939800000000002</v>
@@ -3556,7 +3634,7 @@
         <v>82</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>838</v>
+        <v>864</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>72</v>
@@ -3713,7 +3791,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>835</v>
+        <v>861</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>109</v>
@@ -3897,13 +3975,13 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>835</v>
+        <v>861</v>
       </c>
       <c r="F2" t="s">
-        <v>836</v>
+        <v>862</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>837</v>
+        <v>863</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>31</v>
@@ -4238,10 +4316,10 @@
         <v>56</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>834</v>
+        <v>860</v>
       </c>
       <c r="E2" t="s">
-        <v>836</v>
+        <v>862</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>69</v>
@@ -4253,7 +4331,7 @@
         <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>838</v>
+        <v>864</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>72</v>
@@ -4262,10 +4340,10 @@
         <v>73</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>839</v>
+        <v>865</v>
       </c>
       <c r="M2" s="17" t="n">
-        <v>4202229.0</v>
+        <v>4202245.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>74</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2795" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2961" uniqueCount="920">
   <si>
     <t>TestCases</t>
   </si>
@@ -2635,6 +2635,165 @@
   </si>
   <si>
     <t>4202240.0</t>
+  </si>
+  <si>
+    <t>6866573108</t>
+  </si>
+  <si>
+    <t>Navami</t>
+  </si>
+  <si>
+    <t>YashKakar61419@example.net</t>
+  </si>
+  <si>
+    <t>1990-08-24</t>
+  </si>
+  <si>
+    <t>272182247386680</t>
+  </si>
+  <si>
+    <t>9935854488</t>
+  </si>
+  <si>
+    <t>ShashankBalan81680@example.net</t>
+  </si>
+  <si>
+    <t>1980-06-07</t>
+  </si>
+  <si>
+    <t>333268317593144</t>
+  </si>
+  <si>
+    <t>9558172001</t>
+  </si>
+  <si>
+    <t>Radha</t>
+  </si>
+  <si>
+    <t>RahimThomas11242@example.net</t>
+  </si>
+  <si>
+    <t>1978-11-09</t>
+  </si>
+  <si>
+    <t>908220809832279</t>
+  </si>
+  <si>
+    <t>8701379729</t>
+  </si>
+  <si>
+    <t>Rakhi</t>
+  </si>
+  <si>
+    <t>AbhinavBorde52379@example.net</t>
+  </si>
+  <si>
+    <t>1970-10-05</t>
+  </si>
+  <si>
+    <t>687327431465043</t>
+  </si>
+  <si>
+    <t>IDEP6196816555587IBM</t>
+  </si>
+  <si>
+    <t>4202245.0</t>
+  </si>
+  <si>
+    <t>8301279792</t>
+  </si>
+  <si>
+    <t>EmranPathak71185@example.net</t>
+  </si>
+  <si>
+    <t>1990-04-15</t>
+  </si>
+  <si>
+    <t>056079039701740</t>
+  </si>
+  <si>
+    <t>IDEP961689213534C5UQ</t>
+  </si>
+  <si>
+    <t>4202279.0</t>
+  </si>
+  <si>
+    <t>9481385692</t>
+  </si>
+  <si>
+    <t>Kirti</t>
+  </si>
+  <si>
+    <t>ViratTrivedi65874@example.net</t>
+  </si>
+  <si>
+    <t>1993-08-23</t>
+  </si>
+  <si>
+    <t>633714463807736</t>
+  </si>
+  <si>
+    <t>IDEP69168987578435P1</t>
+  </si>
+  <si>
+    <t>4202320.0</t>
+  </si>
+  <si>
+    <t>9139344797</t>
+  </si>
+  <si>
+    <t>Bhairavi</t>
+  </si>
+  <si>
+    <t>BalajiSastry36199@example.net</t>
+  </si>
+  <si>
+    <t>1977-02-15</t>
+  </si>
+  <si>
+    <t>248216337101574</t>
+  </si>
+  <si>
+    <t>IDEP66191236418686RG</t>
+  </si>
+  <si>
+    <t>4202326.0</t>
+  </si>
+  <si>
+    <t>9981213552</t>
+  </si>
+  <si>
+    <t>SushantSoni70958@example.net</t>
+  </si>
+  <si>
+    <t>1982-12-22</t>
+  </si>
+  <si>
+    <t>606633765517707</t>
+  </si>
+  <si>
+    <t>IDEP619613859837FAH7</t>
+  </si>
+  <si>
+    <t>4202352.0</t>
+  </si>
+  <si>
+    <t>8601623942</t>
+  </si>
+  <si>
+    <t>UmeshJani42372@example.net</t>
+  </si>
+  <si>
+    <t>1988-06-22</t>
+  </si>
+  <si>
+    <t>779513914158986</t>
+  </si>
+  <si>
+    <t>IDEP6691156283763EQR</t>
+  </si>
+  <si>
+    <t>4202355.0</t>
   </si>
 </sst>
 </file>
@@ -3115,7 +3274,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>860</v>
+        <v>914</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -3267,7 +3426,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>860</v>
+        <v>914</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3284,7 +3443,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>860</v>
+        <v>914</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3301,7 +3460,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>860</v>
+        <v>914</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3318,7 +3477,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>860</v>
+        <v>914</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3335,7 +3494,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>860</v>
+        <v>914</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3404,7 +3563,7 @@
         <v>82</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>864</v>
+        <v>917</v>
       </c>
       <c r="F2" s="19">
         <v>18.939800000000002</v>
@@ -3634,7 +3793,7 @@
         <v>82</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>864</v>
+        <v>917</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>72</v>
@@ -3791,7 +3950,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>861</v>
+        <v>505</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>109</v>
@@ -3975,13 +4134,13 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>861</v>
+        <v>505</v>
       </c>
       <c r="F2" t="s">
-        <v>862</v>
+        <v>915</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>863</v>
+        <v>916</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>31</v>
@@ -4316,10 +4475,10 @@
         <v>56</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>860</v>
+        <v>914</v>
       </c>
       <c r="E2" t="s">
-        <v>862</v>
+        <v>915</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>69</v>
@@ -4331,7 +4490,7 @@
         <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>864</v>
+        <v>917</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>72</v>
@@ -4340,10 +4499,10 @@
         <v>73</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>865</v>
+        <v>918</v>
       </c>
       <c r="M2" s="17" t="n">
-        <v>4202245.0</v>
+        <v>4202385.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>74</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3439" uniqueCount="1541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3955" uniqueCount="1717">
   <si>
     <t>TestCases</t>
   </si>
@@ -4663,6 +4663,534 @@
   </si>
   <si>
     <t>JDAUQP</t>
+  </si>
+  <si>
+    <t>6328700000</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>EliasMagar22908@example.net</t>
+  </si>
+  <si>
+    <t>1985-09-03</t>
+  </si>
+  <si>
+    <t>642302380080766</t>
+  </si>
+  <si>
+    <t>67384c5a06f89135</t>
+  </si>
+  <si>
+    <t>382062342867833</t>
+  </si>
+  <si>
+    <t>IDEP196698476628UB5Q</t>
+  </si>
+  <si>
+    <t>4204008.0</t>
+  </si>
+  <si>
+    <t>59999474864</t>
+  </si>
+  <si>
+    <t>KKPGOL</t>
+  </si>
+  <si>
+    <t>6651066442</t>
+  </si>
+  <si>
+    <t>BaalkrishanKapur68669@example.net</t>
+  </si>
+  <si>
+    <t>1976-01-08</t>
+  </si>
+  <si>
+    <t>031500482456524</t>
+  </si>
+  <si>
+    <t>1bab243639cc7de8</t>
+  </si>
+  <si>
+    <t>900788640773421</t>
+  </si>
+  <si>
+    <t>335577016651066442</t>
+  </si>
+  <si>
+    <t>ICIC89100784099</t>
+  </si>
+  <si>
+    <t>6565717580</t>
+  </si>
+  <si>
+    <t>Julie</t>
+  </si>
+  <si>
+    <t>BaalkrishanSingh78832@example.net</t>
+  </si>
+  <si>
+    <t>1984-03-29</t>
+  </si>
+  <si>
+    <t>227993031914487</t>
+  </si>
+  <si>
+    <t>88cb3e514cfd8776</t>
+  </si>
+  <si>
+    <t>098909997568402</t>
+  </si>
+  <si>
+    <t>335577016565717580</t>
+  </si>
+  <si>
+    <t>ICIC99281350069</t>
+  </si>
+  <si>
+    <t>9083578931</t>
+  </si>
+  <si>
+    <t>RupeshVarughese91885@example.net</t>
+  </si>
+  <si>
+    <t>1985-10-26</t>
+  </si>
+  <si>
+    <t>105263717087710</t>
+  </si>
+  <si>
+    <t>140832249ca1776c</t>
+  </si>
+  <si>
+    <t>882506389291021</t>
+  </si>
+  <si>
+    <t>IDEP619691489459YLCK</t>
+  </si>
+  <si>
+    <t>4204058.0</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>59999339075</t>
+  </si>
+  <si>
+    <t>NOMEFS</t>
+  </si>
+  <si>
+    <t>BNPL6619916867236841</t>
+  </si>
+  <si>
+    <t>59999399821</t>
+  </si>
+  <si>
+    <t>EQGCJK</t>
+  </si>
+  <si>
+    <t>59999875234</t>
+  </si>
+  <si>
+    <t>ACGOMC</t>
+  </si>
+  <si>
+    <t>59999160461</t>
+  </si>
+  <si>
+    <t>TGCUMI</t>
+  </si>
+  <si>
+    <t>59999465671</t>
+  </si>
+  <si>
+    <t>FEHJAT</t>
+  </si>
+  <si>
+    <t>59999252735</t>
+  </si>
+  <si>
+    <t>QSGFGI</t>
+  </si>
+  <si>
+    <t>59999252938</t>
+  </si>
+  <si>
+    <t>HECEQA</t>
+  </si>
+  <si>
+    <t>59999693276</t>
+  </si>
+  <si>
+    <t>INRIRB</t>
+  </si>
+  <si>
+    <t>59999575715</t>
+  </si>
+  <si>
+    <t>ESUKRP</t>
+  </si>
+  <si>
+    <t>59999770859</t>
+  </si>
+  <si>
+    <t>RCRGRI</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>9827259761</t>
+  </si>
+  <si>
+    <t>AbhishekManne12940@example.net</t>
+  </si>
+  <si>
+    <t>1971-06-01</t>
+  </si>
+  <si>
+    <t>868717318057478</t>
+  </si>
+  <si>
+    <t>346aaa8bd735353c</t>
+  </si>
+  <si>
+    <t>534292458024781</t>
+  </si>
+  <si>
+    <t>335577019827259761</t>
+  </si>
+  <si>
+    <t>ICIC93030403031</t>
+  </si>
+  <si>
+    <t>9911308929</t>
+  </si>
+  <si>
+    <t>Aabha</t>
+  </si>
+  <si>
+    <t>BrockMander31950@example.net</t>
+  </si>
+  <si>
+    <t>1983-12-22</t>
+  </si>
+  <si>
+    <t>682799918147242</t>
+  </si>
+  <si>
+    <t>7d12d76e40fdfc1e</t>
+  </si>
+  <si>
+    <t>042546978394361</t>
+  </si>
+  <si>
+    <t>335577019911308929</t>
+  </si>
+  <si>
+    <t>ICIC82782860315</t>
+  </si>
+  <si>
+    <t>6911566507</t>
+  </si>
+  <si>
+    <t>Kanika</t>
+  </si>
+  <si>
+    <t>PranayMaheshwari22505@example.net</t>
+  </si>
+  <si>
+    <t>1972-05-17</t>
+  </si>
+  <si>
+    <t>752323579825783</t>
+  </si>
+  <si>
+    <t>2378dc4cced477b8</t>
+  </si>
+  <si>
+    <t>861123165049196</t>
+  </si>
+  <si>
+    <t>7987960501</t>
+  </si>
+  <si>
+    <t>VickyAurora31720@example.net</t>
+  </si>
+  <si>
+    <t>1990-05-13</t>
+  </si>
+  <si>
+    <t>688049747713515</t>
+  </si>
+  <si>
+    <t>fec2e49f64bdc01d</t>
+  </si>
+  <si>
+    <t>413176883134826</t>
+  </si>
+  <si>
+    <t>7901920386</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>EddieSheth67267@example.net</t>
+  </si>
+  <si>
+    <t>1975-09-18</t>
+  </si>
+  <si>
+    <t>470868585446736</t>
+  </si>
+  <si>
+    <t>dc8ca365fc4ecafc</t>
+  </si>
+  <si>
+    <t>304296576577941</t>
+  </si>
+  <si>
+    <t>8591885331</t>
+  </si>
+  <si>
+    <t>BaalkrishanBhardwaj94307@example.net</t>
+  </si>
+  <si>
+    <t>1989-07-13</t>
+  </si>
+  <si>
+    <t>323906912452099</t>
+  </si>
+  <si>
+    <t>f0e92a2c22e0495d</t>
+  </si>
+  <si>
+    <t>496956168114480</t>
+  </si>
+  <si>
+    <t>9797743087</t>
+  </si>
+  <si>
+    <t>Jasmin</t>
+  </si>
+  <si>
+    <t>YaduChatterjee11829@example.net</t>
+  </si>
+  <si>
+    <t>1986-10-01</t>
+  </si>
+  <si>
+    <t>687670422363903</t>
+  </si>
+  <si>
+    <t>a3502fb2e49647ef</t>
+  </si>
+  <si>
+    <t>488764864557089</t>
+  </si>
+  <si>
+    <t>8553927727</t>
+  </si>
+  <si>
+    <t>IshatBora63430@example.net</t>
+  </si>
+  <si>
+    <t>1975-09-28</t>
+  </si>
+  <si>
+    <t>883564157453967</t>
+  </si>
+  <si>
+    <t>1c2533d929ff11bd</t>
+  </si>
+  <si>
+    <t>526376288971640</t>
+  </si>
+  <si>
+    <t>8774899071</t>
+  </si>
+  <si>
+    <t>Laveena</t>
+  </si>
+  <si>
+    <t>SurajBumb44947@example.net</t>
+  </si>
+  <si>
+    <t>1975-02-18</t>
+  </si>
+  <si>
+    <t>761758749939809</t>
+  </si>
+  <si>
+    <t>39f9fb001b8b1a92</t>
+  </si>
+  <si>
+    <t>423870077958622</t>
+  </si>
+  <si>
+    <t>8201580923</t>
+  </si>
+  <si>
+    <t>Preshita</t>
+  </si>
+  <si>
+    <t>HarbhajanBail60117@example.net</t>
+  </si>
+  <si>
+    <t>1973-12-09</t>
+  </si>
+  <si>
+    <t>220100823316296</t>
+  </si>
+  <si>
+    <t>71c8cadf1679c962</t>
+  </si>
+  <si>
+    <t>016598181833117</t>
+  </si>
+  <si>
+    <t>9147355895</t>
+  </si>
+  <si>
+    <t>Anusha</t>
+  </si>
+  <si>
+    <t>DineshGandhi43724@example.net</t>
+  </si>
+  <si>
+    <t>1991-03-07</t>
+  </si>
+  <si>
+    <t>129257593833611</t>
+  </si>
+  <si>
+    <t>d81d667553d2b713</t>
+  </si>
+  <si>
+    <t>541313965355319</t>
+  </si>
+  <si>
+    <t>9001735548</t>
+  </si>
+  <si>
+    <t>Megha</t>
+  </si>
+  <si>
+    <t>GauranshAgarwal46480@example.net</t>
+  </si>
+  <si>
+    <t>1983-08-20</t>
+  </si>
+  <si>
+    <t>221054285217907</t>
+  </si>
+  <si>
+    <t>f2ce85bbe6d5d17b</t>
+  </si>
+  <si>
+    <t>699537419369548</t>
+  </si>
+  <si>
+    <t>9812615288</t>
+  </si>
+  <si>
+    <t>Ambika</t>
+  </si>
+  <si>
+    <t>BinoyaPandey75268@example.net</t>
+  </si>
+  <si>
+    <t>1992-05-22</t>
+  </si>
+  <si>
+    <t>616598970990221</t>
+  </si>
+  <si>
+    <t>e4f936b92b9ba084</t>
+  </si>
+  <si>
+    <t>983154482268592</t>
+  </si>
+  <si>
+    <t>9063597620</t>
+  </si>
+  <si>
+    <t>MoninGoyal33922@example.net</t>
+  </si>
+  <si>
+    <t>1991-02-22</t>
+  </si>
+  <si>
+    <t>445422559519912</t>
+  </si>
+  <si>
+    <t>d31c9e0d666a97f4</t>
+  </si>
+  <si>
+    <t>525982509451154</t>
+  </si>
+  <si>
+    <t>IDEP691615142172TSPB</t>
+  </si>
+  <si>
+    <t>4204061.0</t>
+  </si>
+  <si>
+    <t>6514840189</t>
+  </si>
+  <si>
+    <t>Binita</t>
+  </si>
+  <si>
+    <t>AayushmanDhillon40602@example.net</t>
+  </si>
+  <si>
+    <t>1982-04-01</t>
+  </si>
+  <si>
+    <t>780980992831254</t>
+  </si>
+  <si>
+    <t>79d9fe9646b69af8</t>
+  </si>
+  <si>
+    <t>820678016495088</t>
+  </si>
+  <si>
+    <t>IDEP196615416335W23J</t>
+  </si>
+  <si>
+    <t>4204191.0</t>
+  </si>
+  <si>
+    <t>7989079802</t>
+  </si>
+  <si>
+    <t>Rakhi</t>
+  </si>
+  <si>
+    <t>GiaanLodi51651@example.net</t>
+  </si>
+  <si>
+    <t>1994-05-16</t>
+  </si>
+  <si>
+    <t>518976453570737</t>
+  </si>
+  <si>
+    <t>687d6f034eaa1e3e</t>
+  </si>
+  <si>
+    <t>248836314991224</t>
+  </si>
+  <si>
+    <t>IDEP619615783898XTAB</t>
+  </si>
+  <si>
+    <t>4204194.0</t>
   </si>
 </sst>
 </file>
@@ -5153,7 +5681,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>1530</v>
+        <v>1708</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -5265,16 +5793,16 @@
         <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>1535</v>
+        <v>1713</v>
       </c>
       <c r="C2" t="s">
-        <v>1536</v>
+        <v>1714</v>
       </c>
       <c r="D2" t="s">
         <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>1534</v>
+        <v>1712</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -5377,7 +5905,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1528</v>
+        <v>1606</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>185</v>
@@ -5389,7 +5917,7 @@
         <v>186</v>
       </c>
       <c r="G2" t="s">
-        <v>1529</v>
+        <v>1607</v>
       </c>
       <c r="H2" s="28">
         <v>44798.630833333336</v>
@@ -5398,7 +5926,7 @@
         <v>187</v>
       </c>
       <c r="J2" t="n">
-        <v>113.0</v>
+        <v>171.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -5489,13 +6017,13 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>1531</v>
+        <v>1709</v>
       </c>
       <c r="F2" t="s">
-        <v>1532</v>
+        <v>1710</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>1533</v>
+        <v>1711</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>31</v>
@@ -5841,7 +6369,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1537</v>
+        <v>1615</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>185</v>
@@ -5853,7 +6381,7 @@
         <v>208</v>
       </c>
       <c r="G2" t="s">
-        <v>1538</v>
+        <v>1616</v>
       </c>
       <c r="H2" s="28">
         <v>44798.630833333336</v>
@@ -5862,7 +6390,7 @@
         <v>187</v>
       </c>
       <c r="J2" t="n">
-        <v>113.0</v>
+        <v>171.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -5988,10 +6516,10 @@
         <v>56</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>1530</v>
+        <v>1708</v>
       </c>
       <c r="E2" t="s">
-        <v>1532</v>
+        <v>1710</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>69</v>
@@ -6003,7 +6531,7 @@
         <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1534</v>
+        <v>1712</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>72</v>
@@ -6012,10 +6540,10 @@
         <v>73</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1496</v>
+        <v>1715</v>
       </c>
       <c r="M2" s="17" t="n">
-        <v>4204008.0</v>
+        <v>4204195.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>74</v>
@@ -6163,7 +6691,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1530</v>
+        <v>1708</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -6180,7 +6708,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1530</v>
+        <v>1708</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -6197,7 +6725,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1530</v>
+        <v>1708</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -6214,7 +6742,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1530</v>
+        <v>1708</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -6231,7 +6759,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1530</v>
+        <v>1708</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -6300,7 +6828,7 @@
         <v>82</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>1534</v>
+        <v>1712</v>
       </c>
       <c r="F2" s="19">
         <v>18.939800000000002</v>
@@ -6530,7 +7058,7 @@
         <v>82</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>1534</v>
+        <v>1712</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>72</v>
@@ -6687,7 +7215,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>1531</v>
+        <v>1709</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>109</v>
@@ -6844,7 +7372,7 @@
         <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>717</v>
+        <v>1194</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>132</v>
@@ -6858,7 +7386,7 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>717</v>
+        <v>1194</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>132</v>
@@ -6983,22 +7511,22 @@
         <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>1496</v>
+        <v>1715</v>
       </c>
       <c r="C2" t="s">
-        <v>717</v>
+        <v>1194</v>
       </c>
       <c r="D2" t="s">
         <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>1539</v>
+        <v>1597</v>
       </c>
       <c r="F2" t="s">
         <v>147</v>
       </c>
       <c r="G2" t="s">
-        <v>1540</v>
+        <v>1598</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -7334,7 +7862,9 @@
       <c r="A2" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>1580</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>167</v>
       </c>
